--- a/top_words.xlsx
+++ b/top_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archi\PycharmProjects\COVID_Twitter_Trends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F28EF6-A671-4D19-A62B-2F6AFA62220F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92C5D01-5E06-437C-B5AE-95C49F218BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F7DFDA2D-111C-4EDC-B603-89AE7E017947}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="69">
   <si>
     <t>people</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>nuevos</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>got</t>
   </si>
 </sst>
 </file>
@@ -604,7 +613,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -684,7 +693,9 @@
       <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -720,7 +731,9 @@
       <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -756,7 +769,9 @@
       <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -792,7 +807,9 @@
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -828,7 +845,9 @@
       <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -864,7 +883,9 @@
       <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -900,7 +921,9 @@
       <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -936,7 +959,9 @@
       <c r="K9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -972,7 +997,9 @@
       <c r="K10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1008,7 +1035,9 @@
       <c r="K11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1044,7 +1073,9 @@
       <c r="K12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -1080,7 +1111,9 @@
       <c r="K13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1116,7 +1149,9 @@
       <c r="K14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1152,7 +1187,9 @@
       <c r="K15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1188,7 +1225,9 @@
       <c r="K16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -1224,7 +1263,9 @@
       <c r="K17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -1260,7 +1301,9 @@
       <c r="K18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -1296,7 +1339,9 @@
       <c r="K19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -1332,7 +1377,9 @@
       <c r="K20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -1368,7 +1415,9 @@
       <c r="K21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
